--- a/input_spreadsheets/GUI/InputForCode.xlsx
+++ b/input_spreadsheets/GUI/InputForCode.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\Nutrition\input_spreadsheets\GUI\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="38400" windowHeight="18240" tabRatio="961" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="-6180" yWindow="-21135" windowWidth="20730" windowHeight="11760" tabRatio="961" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -75,7 +70,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$35</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$30</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -90,7 +85,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -146,7 +141,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="1" shapeId="0">
+    <comment ref="D5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -195,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1" shapeId="0">
+    <comment ref="D7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -219,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -243,7 +238,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="1" shapeId="0">
+    <comment ref="D8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -267,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="1" shapeId="0">
+    <comment ref="A9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -291,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D9" authorId="1" shapeId="0">
+    <comment ref="D9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -315,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="2" shapeId="0">
+    <comment ref="A14" authorId="2">
       <text>
         <r>
           <rPr>
@@ -339,7 +334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D14" authorId="1" shapeId="0">
+    <comment ref="D14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -363,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A15" authorId="2" shapeId="0">
+    <comment ref="A15" authorId="2">
       <text>
         <r>
           <rPr>
@@ -387,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D15" authorId="1" shapeId="0">
+    <comment ref="D15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -411,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0">
+    <comment ref="A24" authorId="2">
       <text>
         <r>
           <rPr>
@@ -435,7 +430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D25" authorId="1" shapeId="0">
+    <comment ref="D25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -459,7 +454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A26" authorId="2" shapeId="0">
+    <comment ref="A26" authorId="2">
       <text>
         <r>
           <rPr>
@@ -483,7 +478,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D27" authorId="1" shapeId="0">
+    <comment ref="D27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -531,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C29" authorId="0" shapeId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -555,7 +550,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -579,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D31" authorId="3" shapeId="0">
+    <comment ref="D31" authorId="3">
       <text>
         <r>
           <rPr>
@@ -603,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="1" shapeId="0">
+    <comment ref="D40" authorId="1">
       <text>
         <r>
           <rPr>
@@ -652,7 +647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D42" authorId="1" shapeId="0">
+    <comment ref="D42" authorId="1">
       <text>
         <r>
           <rPr>
@@ -676,7 +671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D48" authorId="0" shapeId="0">
+    <comment ref="D48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -711,7 +706,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -760,7 +755,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -784,7 +779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="1" shapeId="0">
+    <comment ref="F12" authorId="1">
       <text>
         <r>
           <rPr>
@@ -808,7 +803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -832,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -856,7 +851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -880,7 +875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -914,7 +909,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B5" authorId="0" shapeId="0">
+    <comment ref="B5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -949,7 +944,7 @@
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -973,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
+    <comment ref="C5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -997,7 +992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="1" shapeId="0">
+    <comment ref="E5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F5" authorId="1" shapeId="0">
+    <comment ref="F5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1045,7 +1040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="1" shapeId="0">
+    <comment ref="G5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1069,7 +1064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H5" authorId="1" shapeId="0">
+    <comment ref="H5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1093,7 +1088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L5" authorId="1" shapeId="0">
+    <comment ref="L5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1117,7 +1112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1141,7 +1136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="1" shapeId="0">
+    <comment ref="E6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="1" shapeId="0">
+    <comment ref="H6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1189,7 +1184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="1" shapeId="0">
+    <comment ref="L6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1213,7 +1208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0">
+    <comment ref="C7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1247,7 +1242,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A19" authorId="0" shapeId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1276,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0" shapeId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1358,7 @@
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1398,7 +1393,7 @@
     <author>Ruth</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1424,7 +1419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="1" shapeId="0">
+    <comment ref="C3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1455,7 @@
     <author xml:space="preserve"> Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1484,7 +1479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1508,7 +1503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="1" shapeId="0">
+    <comment ref="A7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1532,7 +1527,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A12" authorId="2" shapeId="0">
+    <comment ref="A12" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1556,7 +1551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A13" authorId="2" shapeId="0">
+    <comment ref="A13" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1580,7 +1575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="2" shapeId="0">
+    <comment ref="A22" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1604,7 +1599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A24" authorId="2" shapeId="0">
+    <comment ref="A24" authorId="2">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1509" uniqueCount="315">
   <si>
     <t>year</t>
   </si>
@@ -2569,17 +2564,26 @@
   </si>
   <si>
     <t>Diarrhea (per additional episode)</t>
+  </si>
+  <si>
+    <t>Maternal (deaths per 100,000 births)</t>
+  </si>
+  <si>
+    <t>Under five (deaths per 1,000 births)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -2928,7 +2932,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3684,7 +3688,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3789,8 +3793,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -3806,8 +3810,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="12" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="12" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -3830,16 +3834,16 @@
     <xf numFmtId="2" fontId="12" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3855,7 +3859,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3906,20 +3910,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="11" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="725">
@@ -4682,7 +4686,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4739,7 +4743,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4796,7 +4800,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4853,7 +4857,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4910,7 +4914,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4967,7 +4971,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5024,7 +5028,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5081,7 +5085,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5138,7 +5142,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5195,7 +5199,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5252,7 +5256,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5309,7 +5313,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5366,7 +5370,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5423,7 +5427,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5480,7 +5484,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5537,7 +5541,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5594,7 +5598,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5651,7 +5655,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,7 +5704,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11046,7 +11050,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -11993,7 +11997,7 @@
       <c r="A2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="148" t="s">
         <v>53</v>
       </c>
       <c r="C2" t="s">
@@ -12016,7 +12020,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="147"/>
+      <c r="B3" s="148"/>
       <c r="C3" t="s">
         <v>117</v>
       </c>
@@ -12038,7 +12042,7 @@
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="147"/>
+      <c r="B4" s="148"/>
       <c r="C4" t="s">
         <v>127</v>
       </c>
@@ -12065,7 +12069,7 @@
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="147" t="s">
+      <c r="B5" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -12088,7 +12092,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="147"/>
+      <c r="B6" s="148"/>
       <c r="C6" t="s">
         <v>117</v>
       </c>
@@ -12109,7 +12113,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="147"/>
+      <c r="B7" s="148"/>
       <c r="C7" t="s">
         <v>127</v>
       </c>
@@ -12135,7 +12139,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="148" t="s">
         <v>2</v>
       </c>
       <c r="C8" t="s">
@@ -12158,7 +12162,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="147"/>
+      <c r="B9" s="148"/>
       <c r="C9" t="s">
         <v>117</v>
       </c>
@@ -12179,7 +12183,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="147"/>
+      <c r="B10" s="148"/>
       <c r="C10" t="s">
         <v>127</v>
       </c>
@@ -12204,7 +12208,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C11" t="s">
@@ -12227,7 +12231,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="147"/>
+      <c r="B12" s="148"/>
       <c r="C12" t="s">
         <v>117</v>
       </c>
@@ -12248,7 +12252,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="147"/>
+      <c r="B13" s="148"/>
       <c r="C13" t="s">
         <v>127</v>
       </c>
@@ -12272,7 +12276,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="147" t="s">
+      <c r="B14" s="148" t="s">
         <v>4</v>
       </c>
       <c r="C14" t="s">
@@ -12295,7 +12299,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="147"/>
+      <c r="B15" s="148"/>
       <c r="C15" t="s">
         <v>117</v>
       </c>
@@ -12316,7 +12320,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="147"/>
+      <c r="B16" s="148"/>
       <c r="C16" t="s">
         <v>127</v>
       </c>
@@ -12372,7 +12376,7 @@
       <c r="A19" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="B19" s="147" t="s">
+      <c r="B19" s="148" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="s">
@@ -12395,7 +12399,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="147"/>
+      <c r="B20" s="148"/>
       <c r="C20" t="s">
         <v>117</v>
       </c>
@@ -12416,7 +12420,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B21" s="147"/>
+      <c r="B21" s="148"/>
       <c r="C21" t="s">
         <v>127</v>
       </c>
@@ -12442,7 +12446,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C22" t="s">
@@ -12465,7 +12469,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="147"/>
+      <c r="B23" s="148"/>
       <c r="C23" t="s">
         <v>117</v>
       </c>
@@ -12486,7 +12490,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="147"/>
+      <c r="B24" s="148"/>
       <c r="C24" t="s">
         <v>127</v>
       </c>
@@ -12512,7 +12516,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="147" t="s">
+      <c r="B25" s="148" t="s">
         <v>2</v>
       </c>
       <c r="C25" t="s">
@@ -12535,7 +12539,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="147"/>
+      <c r="B26" s="148"/>
       <c r="C26" t="s">
         <v>117</v>
       </c>
@@ -12556,7 +12560,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="147"/>
+      <c r="B27" s="148"/>
       <c r="C27" t="s">
         <v>127</v>
       </c>
@@ -12582,7 +12586,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="147" t="s">
+      <c r="B28" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C28" t="s">
@@ -12605,7 +12609,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="147"/>
+      <c r="B29" s="148"/>
       <c r="C29" t="s">
         <v>117</v>
       </c>
@@ -12626,7 +12630,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="147"/>
+      <c r="B30" s="148"/>
       <c r="C30" t="s">
         <v>127</v>
       </c>
@@ -12652,7 +12656,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B31" s="147" t="s">
+      <c r="B31" s="148" t="s">
         <v>4</v>
       </c>
       <c r="C31" t="s">
@@ -12675,7 +12679,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="147"/>
+      <c r="B32" s="148"/>
       <c r="C32" t="s">
         <v>117</v>
       </c>
@@ -12696,7 +12700,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="147"/>
+      <c r="B33" s="148"/>
       <c r="C33" t="s">
         <v>127</v>
       </c>
@@ -12748,7 +12752,7 @@
       <c r="A36" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="148" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
@@ -12771,7 +12775,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="147"/>
+      <c r="B37" s="148"/>
       <c r="C37" t="s">
         <v>117</v>
       </c>
@@ -12792,7 +12796,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="147"/>
+      <c r="B38" s="148"/>
       <c r="C38" t="s">
         <v>127</v>
       </c>
@@ -12813,7 +12817,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="147" t="s">
+      <c r="B39" s="148" t="s">
         <v>1</v>
       </c>
       <c r="C39" t="s">
@@ -12836,7 +12840,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="147"/>
+      <c r="B40" s="148"/>
       <c r="C40" t="s">
         <v>117</v>
       </c>
@@ -12857,7 +12861,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B41" s="147"/>
+      <c r="B41" s="148"/>
       <c r="C41" t="s">
         <v>127</v>
       </c>
@@ -12878,7 +12882,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="147" t="s">
+      <c r="B42" s="148" t="s">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -12901,7 +12905,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="147"/>
+      <c r="B43" s="148"/>
       <c r="C43" t="s">
         <v>117</v>
       </c>
@@ -12922,7 +12926,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B44" s="147"/>
+      <c r="B44" s="148"/>
       <c r="C44" t="s">
         <v>127</v>
       </c>
@@ -12943,7 +12947,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B45" s="147" t="s">
+      <c r="B45" s="148" t="s">
         <v>3</v>
       </c>
       <c r="C45" t="s">
@@ -12966,7 +12970,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B46" s="147"/>
+      <c r="B46" s="148"/>
       <c r="C46" t="s">
         <v>117</v>
       </c>
@@ -12987,7 +12991,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B47" s="147"/>
+      <c r="B47" s="148"/>
       <c r="C47" t="s">
         <v>127</v>
       </c>
@@ -13008,7 +13012,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B48" s="147" t="s">
+      <c r="B48" s="148" t="s">
         <v>4</v>
       </c>
       <c r="C48" t="s">
@@ -13031,7 +13035,7 @@
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B49" s="147"/>
+      <c r="B49" s="148"/>
       <c r="C49" t="s">
         <v>117</v>
       </c>
@@ -13052,7 +13056,7 @@
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B50" s="147"/>
+      <c r="B50" s="148"/>
       <c r="C50" t="s">
         <v>127</v>
       </c>
@@ -13097,6 +13101,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
@@ -13107,11 +13116,6 @@
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -27192,16 +27196,16 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -27345,7 +27349,7 @@
       <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="147" t="s">
         <v>308</v>
       </c>
       <c r="C11" s="108"/>
@@ -27357,6 +27361,37 @@
       <c r="I11" s="108"/>
       <c r="J11" s="108"/>
       <c r="K11" s="108"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B13" s="86" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B14" s="147" t="s">
+        <v>313</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
